--- a/28_暗号化/ansS.xlsx
+++ b/28_暗号化/ansS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sigemura/sigemura/DOC/よく使うもの/20_GitHub/TecExercise/28_暗号化/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40F4851-0450-7C4F-AAFE-F7814B8CB670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7BEB60-A12A-6741-BD3C-9A4D1F9974E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13220" yWindow="1420" windowWidth="22340" windowHeight="16040" xr2:uid="{AE2B6758-9489-D245-8F41-AE0447B25FDC}"/>
+    <workbookView xWindow="10420" yWindow="1300" windowWidth="22340" windowHeight="16040" xr2:uid="{AE2B6758-9489-D245-8F41-AE0447B25FDC}"/>
   </bookViews>
   <sheets>
     <sheet name="１枚目" sheetId="1" r:id="rId1"/>
@@ -106,16 +106,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>入力をカエサル暗号に変換するプログラム</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ニュウリョクヲ </t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t xml:space="preserve">ヘンカンスル </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <t>氏名：</t>
     </r>
@@ -226,10 +216,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>33 03</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ADD</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -242,30 +228,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>53 7B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CMP</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>G0,#'z'+1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>0C</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>A8 10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>L2</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -274,10 +244,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>43 1A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SUB</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -335,6 +301,52 @@
   </si>
   <si>
     <t>1A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>43 03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>53 61</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G0,#'a'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JNC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B8 10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>33 1A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>英小文字しか入力されないと仮定し，入力をカエサル暗号に変換するプログラム</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">エイ </t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t xml:space="preserve">コモジシカ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">ニュウリョクサレナイ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">カテイシ </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">ニュウリョクヲ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">ヘンカンスル </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -562,55 +574,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>33034</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF8C722D-D7F7-1070-1FEE-09A81D7A673D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5854700" y="1612900"/>
-          <a:ext cx="7772400" cy="6040134"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -977,7 +940,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1000,7 +963,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="12"/>
       <c r="G1" s="11" t="s">
@@ -1009,7 +972,7 @@
     </row>
     <row r="2" spans="2:7">
       <c r="B2" s="14" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -1042,39 +1005,39 @@
         <v>#VALUE!</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="16"/>
       <c r="C5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="16"/>
       <c r="C6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -1084,219 +1047,219 @@
     <row r="7" spans="2:7">
       <c r="B7" s="16"/>
       <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="16"/>
       <c r="C8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="16"/>
       <c r="C9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="16"/>
       <c r="C10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="16"/>
       <c r="C11" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="16"/>
       <c r="C12" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="16"/>
       <c r="C13" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="16"/>
       <c r="C14" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="16"/>
       <c r="C15" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="16"/>
       <c r="C16" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="B17" s="16"/>
       <c r="C17" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="B18" s="16"/>
       <c r="C18" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="B19" s="16"/>
       <c r="C19" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="B20" s="16"/>
       <c r="C20" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1442,6 +1405,5 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>